--- a/ClinicalAthletes/OutputTemplate/ClinicalAthlete Template.xlsx
+++ b/ClinicalAthletes/OutputTemplate/ClinicalAthlete Template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ravia\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\ClinicalAthletes\ClinicalAthletes\OutputTemplate\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -88,7 +88,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -99,20 +99,24 @@
       <sz val="14"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -120,21 +124,25 @@
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -145,6 +153,14 @@
       <sz val="12"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="9">
@@ -378,7 +394,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -419,7 +435,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
@@ -443,7 +458,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -459,6 +473,9 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -468,9 +485,11 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -753,8 +772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF913"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -792,7 +811,7 @@
     <col min="31" max="32" width="7.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32">
+    <row r="1" spans="1:32" ht="17.399999999999999">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -878,51 +897,51 @@
       <c r="Q3" s="9"/>
       <c r="R3" s="9"/>
     </row>
-    <row r="4" spans="1:32">
+    <row r="4" spans="1:32" ht="14.4">
       <c r="A4" s="10"/>
       <c r="B4" s="10"/>
-      <c r="C4" s="73" t="s">
+      <c r="C4" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="74"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="76" t="s">
+      <c r="D4" s="73"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="74"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="73" t="s">
+      <c r="G4" s="73"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="74"/>
-      <c r="K4" s="75"/>
-      <c r="L4" s="76" t="s">
+      <c r="J4" s="73"/>
+      <c r="K4" s="74"/>
+      <c r="L4" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="M4" s="74"/>
-      <c r="N4" s="75"/>
-      <c r="O4" s="73" t="s">
+      <c r="M4" s="73"/>
+      <c r="N4" s="74"/>
+      <c r="O4" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="74"/>
-      <c r="Q4" s="75"/>
-      <c r="R4" s="77"/>
-      <c r="S4" s="72"/>
-      <c r="T4" s="72"/>
-      <c r="U4" s="77"/>
-      <c r="V4" s="72"/>
-      <c r="W4" s="72"/>
-      <c r="X4" s="77"/>
-      <c r="Y4" s="72"/>
-      <c r="Z4" s="72"/>
-      <c r="AA4" s="77"/>
-      <c r="AB4" s="72"/>
-      <c r="AC4" s="72"/>
-      <c r="AD4" s="77"/>
-      <c r="AE4" s="72"/>
-      <c r="AF4" s="72"/>
-    </row>
-    <row r="5" spans="1:32">
+      <c r="P4" s="73"/>
+      <c r="Q4" s="74"/>
+      <c r="R4" s="70"/>
+      <c r="S4" s="71"/>
+      <c r="T4" s="71"/>
+      <c r="U4" s="70"/>
+      <c r="V4" s="71"/>
+      <c r="W4" s="71"/>
+      <c r="X4" s="70"/>
+      <c r="Y4" s="71"/>
+      <c r="Z4" s="71"/>
+      <c r="AA4" s="70"/>
+      <c r="AB4" s="71"/>
+      <c r="AC4" s="71"/>
+      <c r="AD4" s="70"/>
+      <c r="AE4" s="71"/>
+      <c r="AF4" s="71"/>
+    </row>
+    <row r="5" spans="1:32" ht="14.4">
       <c r="A5" s="11"/>
       <c r="B5" s="12" t="s">
         <v>7</v>
@@ -988,7 +1007,7 @@
       <c r="AE5" s="14"/>
       <c r="AF5" s="14"/>
     </row>
-    <row r="6" spans="1:32">
+    <row r="6" spans="1:32" ht="15.6">
       <c r="A6" s="15"/>
       <c r="B6" s="16"/>
       <c r="C6" s="17">
@@ -1042,7 +1061,7 @@
       <c r="AE6" s="14"/>
       <c r="AF6" s="20"/>
     </row>
-    <row r="7" spans="1:32">
+    <row r="7" spans="1:32" ht="15.6">
       <c r="A7" s="21"/>
       <c r="B7" s="16"/>
       <c r="C7" s="22">
@@ -1096,9 +1115,9 @@
       <c r="AE7" s="25"/>
       <c r="AF7" s="14"/>
     </row>
-    <row r="8" spans="1:32">
+    <row r="8" spans="1:32" ht="15.6">
       <c r="A8" s="21"/>
-      <c r="B8" s="26"/>
+      <c r="B8" s="76"/>
       <c r="C8" s="22">
         <v>3</v>
       </c>
@@ -1150,9 +1169,9 @@
       <c r="AE8" s="25"/>
       <c r="AF8" s="14"/>
     </row>
-    <row r="9" spans="1:32">
+    <row r="9" spans="1:32" ht="15.6">
       <c r="A9" s="27"/>
-      <c r="B9" s="26"/>
+      <c r="B9" s="76"/>
       <c r="C9" s="28">
         <v>5</v>
       </c>
@@ -1197,9 +1216,9 @@
       <c r="AE9" s="14"/>
       <c r="AF9" s="20"/>
     </row>
-    <row r="10" spans="1:32">
+    <row r="10" spans="1:32" ht="15.6">
       <c r="A10" s="30"/>
-      <c r="B10" s="26"/>
+      <c r="B10" s="78"/>
       <c r="C10" s="31"/>
       <c r="E10" s="32"/>
       <c r="F10" s="31"/>
@@ -1219,23 +1238,23 @@
       <c r="AE10" s="20"/>
       <c r="AF10" s="20"/>
     </row>
-    <row r="11" spans="1:32">
+    <row r="11" spans="1:32" ht="15.6">
       <c r="A11" s="33"/>
-      <c r="B11" s="34"/>
+      <c r="B11" s="77"/>
       <c r="C11" s="31"/>
       <c r="E11" s="32"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="36"/>
-      <c r="K11" s="37"/>
-      <c r="L11" s="35"/>
-      <c r="M11" s="36"/>
-      <c r="N11" s="37"/>
-      <c r="O11" s="35"/>
-      <c r="P11" s="36"/>
-      <c r="Q11" s="37"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="36"/>
+      <c r="L11" s="34"/>
+      <c r="M11" s="35"/>
+      <c r="N11" s="36"/>
+      <c r="O11" s="34"/>
+      <c r="P11" s="35"/>
+      <c r="Q11" s="36"/>
       <c r="Y11" s="14"/>
       <c r="Z11" s="14"/>
       <c r="AA11" s="14"/>
@@ -1245,23 +1264,23 @@
       <c r="AE11" s="14"/>
       <c r="AF11" s="14"/>
     </row>
-    <row r="12" spans="1:32">
-      <c r="A12" s="38"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="44"/>
-      <c r="I12" s="45"/>
-      <c r="J12" s="46"/>
-      <c r="K12" s="47"/>
-      <c r="L12" s="48"/>
-      <c r="M12" s="49"/>
-      <c r="N12" s="50"/>
-      <c r="O12" s="51"/>
-      <c r="P12" s="52"/>
-      <c r="Q12" s="47"/>
+    <row r="12" spans="1:32" ht="14.4">
+      <c r="A12" s="37"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="44"/>
+      <c r="J12" s="45"/>
+      <c r="K12" s="46"/>
+      <c r="L12" s="47"/>
+      <c r="M12" s="48"/>
+      <c r="N12" s="49"/>
+      <c r="O12" s="50"/>
+      <c r="P12" s="51"/>
+      <c r="Q12" s="46"/>
       <c r="R12" s="14"/>
       <c r="S12" s="14"/>
       <c r="T12" s="20"/>
@@ -1278,54 +1297,54 @@
       <c r="AE12" s="14"/>
       <c r="AF12" s="20"/>
     </row>
-    <row r="13" spans="1:32">
-      <c r="A13" s="38"/>
+    <row r="13" spans="1:32" ht="14.4">
+      <c r="A13" s="37"/>
       <c r="B13" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="53" t="s">
+      <c r="C13" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="53" t="s">
+      <c r="D13" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="53" t="s">
+      <c r="E13" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="F13" s="53" t="s">
+      <c r="F13" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="G13" s="53" t="s">
+      <c r="G13" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="H13" s="53" t="s">
+      <c r="H13" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="I13" s="53" t="s">
+      <c r="I13" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="J13" s="53" t="s">
+      <c r="J13" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="K13" s="53" t="s">
+      <c r="K13" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="L13" s="53" t="s">
+      <c r="L13" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="M13" s="53" t="s">
+      <c r="M13" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="N13" s="53" t="s">
+      <c r="N13" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="O13" s="53" t="s">
+      <c r="O13" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="P13" s="53" t="s">
+      <c r="P13" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="Q13" s="53" t="s">
+      <c r="Q13" s="52" t="s">
         <v>10</v>
       </c>
       <c r="R13" s="20"/>
@@ -1344,9 +1363,9 @@
       <c r="AE13" s="25"/>
       <c r="AF13" s="14"/>
     </row>
-    <row r="14" spans="1:32">
+    <row r="14" spans="1:32" ht="15.6">
       <c r="A14" s="15"/>
-      <c r="B14" s="54"/>
+      <c r="B14" s="53"/>
       <c r="C14" s="28">
         <v>3</v>
       </c>
@@ -1398,9 +1417,9 @@
       <c r="AE14" s="25"/>
       <c r="AF14" s="14"/>
     </row>
-    <row r="15" spans="1:32">
+    <row r="15" spans="1:32" ht="15.6">
       <c r="A15" s="21"/>
-      <c r="B15" s="54"/>
+      <c r="B15" s="53"/>
       <c r="C15" s="22">
         <v>3</v>
       </c>
@@ -1452,9 +1471,9 @@
       <c r="AE15" s="14"/>
       <c r="AF15" s="20"/>
     </row>
-    <row r="16" spans="1:32">
+    <row r="16" spans="1:32" ht="15.6">
       <c r="A16" s="21"/>
-      <c r="B16" s="55"/>
+      <c r="B16" s="80"/>
       <c r="C16" s="22">
         <v>3</v>
       </c>
@@ -1506,9 +1525,9 @@
       <c r="AE16" s="20"/>
       <c r="AF16" s="20"/>
     </row>
-    <row r="17" spans="1:32">
+    <row r="17" spans="1:32" ht="15.6">
       <c r="A17" s="27"/>
-      <c r="B17" s="55"/>
+      <c r="B17" s="80"/>
       <c r="C17" s="28">
         <v>5</v>
       </c>
@@ -1560,24 +1579,24 @@
       <c r="AE17" s="14"/>
       <c r="AF17" s="14"/>
     </row>
-    <row r="18" spans="1:32">
+    <row r="18" spans="1:32" ht="15.6">
       <c r="A18" s="30"/>
-      <c r="B18" s="55"/>
-      <c r="C18" s="56"/>
+      <c r="B18" s="54"/>
+      <c r="C18" s="55"/>
       <c r="D18" s="20"/>
-      <c r="E18" s="57"/>
-      <c r="F18" s="56"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="55"/>
       <c r="G18" s="20"/>
-      <c r="H18" s="57"/>
-      <c r="I18" s="56"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="55"/>
       <c r="J18" s="20"/>
-      <c r="K18" s="57"/>
-      <c r="L18" s="56"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="55"/>
       <c r="M18" s="20"/>
-      <c r="N18" s="57"/>
-      <c r="O18" s="56"/>
+      <c r="N18" s="56"/>
+      <c r="O18" s="55"/>
       <c r="P18" s="20"/>
-      <c r="Q18" s="57"/>
+      <c r="Q18" s="56"/>
       <c r="R18" s="14"/>
       <c r="S18" s="14"/>
       <c r="T18" s="20"/>
@@ -1594,24 +1613,24 @@
       <c r="AE18" s="14"/>
       <c r="AF18" s="20"/>
     </row>
-    <row r="19" spans="1:32">
+    <row r="19" spans="1:32" ht="15.6">
       <c r="A19" s="33"/>
-      <c r="B19" s="58"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="36"/>
-      <c r="K19" s="37"/>
-      <c r="L19" s="35"/>
-      <c r="M19" s="36"/>
-      <c r="N19" s="37"/>
-      <c r="O19" s="35"/>
-      <c r="P19" s="36"/>
-      <c r="Q19" s="37"/>
+      <c r="B19" s="79"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="34"/>
+      <c r="M19" s="35"/>
+      <c r="N19" s="36"/>
+      <c r="O19" s="34"/>
+      <c r="P19" s="35"/>
+      <c r="Q19" s="36"/>
       <c r="R19" s="20"/>
       <c r="S19" s="20"/>
       <c r="T19" s="20"/>
@@ -1628,24 +1647,24 @@
       <c r="AE19" s="25"/>
       <c r="AF19" s="14"/>
     </row>
-    <row r="20" spans="1:32">
+    <row r="20" spans="1:32" ht="14.4">
       <c r="A20" s="10"/>
-      <c r="B20" s="38"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="43"/>
-      <c r="H20" s="44"/>
-      <c r="I20" s="45"/>
-      <c r="J20" s="46"/>
-      <c r="K20" s="47"/>
-      <c r="L20" s="48"/>
-      <c r="M20" s="49"/>
-      <c r="N20" s="50"/>
-      <c r="O20" s="51"/>
-      <c r="P20" s="52"/>
-      <c r="Q20" s="47"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="43"/>
+      <c r="I20" s="44"/>
+      <c r="J20" s="45"/>
+      <c r="K20" s="46"/>
+      <c r="L20" s="47"/>
+      <c r="M20" s="48"/>
+      <c r="N20" s="49"/>
+      <c r="O20" s="50"/>
+      <c r="P20" s="51"/>
+      <c r="Q20" s="46"/>
       <c r="Y20" s="25"/>
       <c r="Z20" s="14"/>
       <c r="AA20" s="25"/>
@@ -1655,12 +1674,12 @@
       <c r="AE20" s="25"/>
       <c r="AF20" s="14"/>
     </row>
-    <row r="21" spans="1:32">
+    <row r="21" spans="1:32" ht="14.4">
       <c r="A21" s="10"/>
       <c r="B21" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="59" t="s">
+      <c r="C21" s="57" t="s">
         <v>8</v>
       </c>
       <c r="D21" s="24" t="s">
@@ -1669,7 +1688,7 @@
       <c r="E21" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="F21" s="59" t="s">
+      <c r="F21" s="57" t="s">
         <v>8</v>
       </c>
       <c r="G21" s="24" t="s">
@@ -1678,7 +1697,7 @@
       <c r="H21" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="I21" s="59" t="s">
+      <c r="I21" s="57" t="s">
         <v>8</v>
       </c>
       <c r="J21" s="24" t="s">
@@ -1687,7 +1706,7 @@
       <c r="K21" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="L21" s="59" t="s">
+      <c r="L21" s="57" t="s">
         <v>8</v>
       </c>
       <c r="M21" s="24" t="s">
@@ -1696,7 +1715,7 @@
       <c r="N21" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="O21" s="59" t="s">
+      <c r="O21" s="57" t="s">
         <v>8</v>
       </c>
       <c r="P21" s="24" t="s">
@@ -1721,7 +1740,7 @@
       <c r="AE21" s="14"/>
       <c r="AF21" s="20"/>
     </row>
-    <row r="22" spans="1:32">
+    <row r="22" spans="1:32" ht="15.6">
       <c r="A22" s="15"/>
       <c r="B22" s="16"/>
       <c r="C22" s="17">
@@ -1775,7 +1794,7 @@
       <c r="AE22" s="20"/>
       <c r="AF22" s="20"/>
     </row>
-    <row r="23" spans="1:32">
+    <row r="23" spans="1:32" ht="15.6">
       <c r="A23" s="21"/>
       <c r="B23" s="16"/>
       <c r="C23" s="22">
@@ -1829,9 +1848,9 @@
       <c r="AE23" s="14"/>
       <c r="AF23" s="14"/>
     </row>
-    <row r="24" spans="1:32">
+    <row r="24" spans="1:32" ht="15.6">
       <c r="A24" s="21"/>
-      <c r="B24" s="26"/>
+      <c r="B24" s="76"/>
       <c r="C24" s="22">
         <v>3</v>
       </c>
@@ -1883,9 +1902,9 @@
       <c r="AE24" s="25"/>
       <c r="AF24" s="20"/>
     </row>
-    <row r="25" spans="1:32">
+    <row r="25" spans="1:32" ht="15.6">
       <c r="A25" s="27"/>
-      <c r="B25" s="26"/>
+      <c r="B25" s="76"/>
       <c r="C25" s="28">
         <v>5</v>
       </c>
@@ -1937,24 +1956,24 @@
       <c r="AE25" s="25"/>
       <c r="AF25" s="14"/>
     </row>
-    <row r="26" spans="1:32">
+    <row r="26" spans="1:32" ht="15.6">
       <c r="A26" s="30"/>
-      <c r="B26" s="55"/>
-      <c r="C26" s="56"/>
+      <c r="B26" s="54"/>
+      <c r="C26" s="55"/>
       <c r="D26" s="20"/>
-      <c r="E26" s="57"/>
-      <c r="F26" s="56"/>
+      <c r="E26" s="56"/>
+      <c r="F26" s="55"/>
       <c r="G26" s="20"/>
-      <c r="H26" s="57"/>
-      <c r="I26" s="56"/>
+      <c r="H26" s="56"/>
+      <c r="I26" s="55"/>
       <c r="J26" s="20"/>
-      <c r="K26" s="57"/>
-      <c r="L26" s="56"/>
+      <c r="K26" s="56"/>
+      <c r="L26" s="55"/>
       <c r="M26" s="20"/>
-      <c r="N26" s="57"/>
-      <c r="O26" s="56"/>
+      <c r="N26" s="56"/>
+      <c r="O26" s="55"/>
       <c r="P26" s="20"/>
-      <c r="Q26" s="57"/>
+      <c r="Q26" s="56"/>
       <c r="R26" s="20"/>
       <c r="S26" s="20"/>
       <c r="T26" s="20"/>
@@ -1971,74 +1990,74 @@
       <c r="AE26" s="25"/>
       <c r="AF26" s="14"/>
     </row>
-    <row r="27" spans="1:32">
+    <row r="27" spans="1:32" ht="15.6">
       <c r="A27" s="33"/>
-      <c r="B27" s="58"/>
-      <c r="C27" s="35"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="37"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="37"/>
-      <c r="I27" s="35"/>
-      <c r="J27" s="36"/>
-      <c r="K27" s="37"/>
-      <c r="L27" s="35"/>
-      <c r="M27" s="36"/>
-      <c r="N27" s="37"/>
-      <c r="O27" s="35"/>
-      <c r="P27" s="36"/>
-      <c r="Q27" s="37"/>
+      <c r="B27" s="79"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="34"/>
+      <c r="J27" s="35"/>
+      <c r="K27" s="36"/>
+      <c r="L27" s="34"/>
+      <c r="M27" s="35"/>
+      <c r="N27" s="36"/>
+      <c r="O27" s="34"/>
+      <c r="P27" s="35"/>
+      <c r="Q27" s="36"/>
       <c r="Y27" s="25"/>
       <c r="Z27" s="9"/>
-      <c r="AA27" s="60"/>
+      <c r="AA27" s="58"/>
       <c r="AB27" s="25"/>
       <c r="AC27" s="9"/>
-      <c r="AD27" s="60"/>
+      <c r="AD27" s="58"/>
       <c r="AE27" s="25"/>
       <c r="AF27" s="9"/>
     </row>
-    <row r="28" spans="1:32">
-      <c r="A28" s="38"/>
+    <row r="28" spans="1:32" ht="14.4">
+      <c r="A28" s="37"/>
       <c r="B28" s="11"/>
-      <c r="C28" s="73" t="s">
+      <c r="C28" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="D28" s="74"/>
-      <c r="E28" s="75"/>
-      <c r="F28" s="76" t="s">
+      <c r="D28" s="73"/>
+      <c r="E28" s="74"/>
+      <c r="F28" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="G28" s="74"/>
-      <c r="H28" s="75"/>
-      <c r="I28" s="73" t="s">
+      <c r="G28" s="73"/>
+      <c r="H28" s="74"/>
+      <c r="I28" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="J28" s="74"/>
-      <c r="K28" s="75"/>
-      <c r="L28" s="76" t="s">
+      <c r="J28" s="73"/>
+      <c r="K28" s="74"/>
+      <c r="L28" s="75" t="s">
         <v>17</v>
       </c>
-      <c r="M28" s="74"/>
-      <c r="N28" s="75"/>
-      <c r="O28" s="73" t="s">
+      <c r="M28" s="73"/>
+      <c r="N28" s="74"/>
+      <c r="O28" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="P28" s="74"/>
-      <c r="Q28" s="75"/>
-      <c r="R28" s="76" t="s">
+      <c r="P28" s="73"/>
+      <c r="Q28" s="74"/>
+      <c r="R28" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="S28" s="74"/>
-      <c r="T28" s="75"/>
-      <c r="U28" s="73" t="s">
+      <c r="S28" s="73"/>
+      <c r="T28" s="74"/>
+      <c r="U28" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="V28" s="74"/>
-      <c r="W28" s="75"/>
+      <c r="V28" s="73"/>
+      <c r="W28" s="74"/>
       <c r="X28" s="25"/>
     </row>
-    <row r="29" spans="1:32">
+    <row r="29" spans="1:32" ht="14.4">
       <c r="A29" s="10"/>
       <c r="B29" s="12" t="s">
         <v>7</v>
@@ -2160,7 +2179,7 @@
         <v>6</v>
       </c>
       <c r="W30" s="19"/>
-      <c r="X30" s="60"/>
+      <c r="X30" s="58"/>
     </row>
     <row r="31" spans="1:32" ht="15.6">
       <c r="A31" s="21"/>
@@ -2217,7 +2236,7 @@
     </row>
     <row r="32" spans="1:32" ht="15.6">
       <c r="A32" s="21"/>
-      <c r="B32" s="26"/>
+      <c r="B32" s="76"/>
       <c r="C32" s="22">
         <v>4</v>
       </c>
@@ -2270,7 +2289,7 @@
     </row>
     <row r="33" spans="1:23" ht="15.6">
       <c r="A33" s="27"/>
-      <c r="B33" s="26"/>
+      <c r="B33" s="76"/>
       <c r="C33" s="28">
         <v>5</v>
       </c>
@@ -2339,62 +2358,62 @@
       <c r="U34" s="31"/>
       <c r="W34" s="32"/>
     </row>
-    <row r="35" spans="1:23" ht="15">
+    <row r="35" spans="1:23" ht="15.6">
       <c r="A35" s="33"/>
-      <c r="B35" s="34"/>
-      <c r="C35" s="35"/>
-      <c r="D35" s="36"/>
-      <c r="E35" s="37"/>
-      <c r="F35" s="35"/>
-      <c r="G35" s="36"/>
-      <c r="H35" s="37"/>
-      <c r="I35" s="35"/>
-      <c r="J35" s="36"/>
-      <c r="K35" s="37"/>
-      <c r="L35" s="35"/>
-      <c r="M35" s="36"/>
-      <c r="N35" s="37"/>
-      <c r="O35" s="35"/>
-      <c r="P35" s="36"/>
-      <c r="Q35" s="37"/>
-      <c r="R35" s="35"/>
-      <c r="S35" s="36"/>
-      <c r="T35" s="37"/>
-      <c r="U35" s="35"/>
-      <c r="V35" s="36"/>
-      <c r="W35" s="37"/>
+      <c r="B35" s="77"/>
+      <c r="C35" s="34"/>
+      <c r="D35" s="35"/>
+      <c r="E35" s="36"/>
+      <c r="F35" s="34"/>
+      <c r="G35" s="35"/>
+      <c r="H35" s="36"/>
+      <c r="I35" s="34"/>
+      <c r="J35" s="35"/>
+      <c r="K35" s="36"/>
+      <c r="L35" s="34"/>
+      <c r="M35" s="35"/>
+      <c r="N35" s="36"/>
+      <c r="O35" s="34"/>
+      <c r="P35" s="35"/>
+      <c r="Q35" s="36"/>
+      <c r="R35" s="34"/>
+      <c r="S35" s="35"/>
+      <c r="T35" s="36"/>
+      <c r="U35" s="34"/>
+      <c r="V35" s="35"/>
+      <c r="W35" s="36"/>
     </row>
     <row r="36" spans="1:23" ht="14.4">
       <c r="A36" s="10"/>
-      <c r="B36" s="38"/>
-      <c r="C36" s="61"/>
-      <c r="D36" s="62"/>
-      <c r="E36" s="63"/>
-      <c r="F36" s="64"/>
-      <c r="G36" s="65"/>
-      <c r="H36" s="44"/>
-      <c r="I36" s="61"/>
-      <c r="J36" s="62"/>
-      <c r="K36" s="63"/>
-      <c r="L36" s="64"/>
-      <c r="M36" s="65"/>
-      <c r="N36" s="44"/>
-      <c r="O36" s="61"/>
-      <c r="P36" s="62"/>
-      <c r="Q36" s="63"/>
-      <c r="R36" s="64"/>
-      <c r="S36" s="65"/>
-      <c r="T36" s="44"/>
-      <c r="U36" s="61"/>
-      <c r="V36" s="62"/>
-      <c r="W36" s="63"/>
+      <c r="B36" s="37"/>
+      <c r="C36" s="59"/>
+      <c r="D36" s="60"/>
+      <c r="E36" s="61"/>
+      <c r="F36" s="62"/>
+      <c r="G36" s="63"/>
+      <c r="H36" s="43"/>
+      <c r="I36" s="59"/>
+      <c r="J36" s="60"/>
+      <c r="K36" s="61"/>
+      <c r="L36" s="62"/>
+      <c r="M36" s="63"/>
+      <c r="N36" s="43"/>
+      <c r="O36" s="59"/>
+      <c r="P36" s="60"/>
+      <c r="Q36" s="61"/>
+      <c r="R36" s="62"/>
+      <c r="S36" s="63"/>
+      <c r="T36" s="43"/>
+      <c r="U36" s="59"/>
+      <c r="V36" s="60"/>
+      <c r="W36" s="61"/>
     </row>
     <row r="37" spans="1:23" ht="14.4">
       <c r="A37" s="10"/>
       <c r="B37" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C37" s="59" t="s">
+      <c r="C37" s="57" t="s">
         <v>8</v>
       </c>
       <c r="D37" s="24" t="s">
@@ -2403,7 +2422,7 @@
       <c r="E37" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="F37" s="59" t="s">
+      <c r="F37" s="57" t="s">
         <v>8</v>
       </c>
       <c r="G37" s="24" t="s">
@@ -2412,7 +2431,7 @@
       <c r="H37" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="I37" s="59" t="s">
+      <c r="I37" s="57" t="s">
         <v>8</v>
       </c>
       <c r="J37" s="24" t="s">
@@ -2421,7 +2440,7 @@
       <c r="K37" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="L37" s="59" t="s">
+      <c r="L37" s="57" t="s">
         <v>8</v>
       </c>
       <c r="M37" s="24" t="s">
@@ -2430,7 +2449,7 @@
       <c r="N37" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="O37" s="59" t="s">
+      <c r="O37" s="57" t="s">
         <v>8</v>
       </c>
       <c r="P37" s="24" t="s">
@@ -2439,7 +2458,7 @@
       <c r="Q37" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="R37" s="59" t="s">
+      <c r="R37" s="57" t="s">
         <v>8</v>
       </c>
       <c r="S37" s="24" t="s">
@@ -2448,7 +2467,7 @@
       <c r="T37" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="U37" s="59" t="s">
+      <c r="U37" s="57" t="s">
         <v>8</v>
       </c>
       <c r="V37" s="24" t="s">
@@ -2566,60 +2585,60 @@
     </row>
     <row r="40" spans="1:23" ht="15.6">
       <c r="A40" s="21"/>
-      <c r="B40" s="55"/>
-      <c r="C40" s="66">
+      <c r="B40" s="80"/>
+      <c r="C40" s="64">
         <v>4</v>
       </c>
       <c r="D40" s="25">
         <v>8</v>
       </c>
-      <c r="E40" s="67"/>
-      <c r="F40" s="66">
+      <c r="E40" s="65"/>
+      <c r="F40" s="64">
         <v>4</v>
       </c>
       <c r="G40" s="25">
         <v>8</v>
       </c>
-      <c r="H40" s="67"/>
-      <c r="I40" s="66">
+      <c r="H40" s="65"/>
+      <c r="I40" s="64">
         <v>4</v>
       </c>
       <c r="J40" s="25">
         <v>8</v>
       </c>
-      <c r="K40" s="67"/>
-      <c r="L40" s="66">
+      <c r="K40" s="65"/>
+      <c r="L40" s="64">
         <v>4</v>
       </c>
       <c r="M40" s="25">
         <v>6</v>
       </c>
-      <c r="N40" s="67"/>
-      <c r="O40" s="66">
+      <c r="N40" s="65"/>
+      <c r="O40" s="64">
         <v>4</v>
       </c>
       <c r="P40" s="25">
         <v>6</v>
       </c>
-      <c r="Q40" s="67"/>
-      <c r="R40" s="66">
+      <c r="Q40" s="65"/>
+      <c r="R40" s="64">
         <v>4</v>
       </c>
       <c r="S40" s="25">
         <v>6</v>
       </c>
-      <c r="T40" s="67"/>
-      <c r="U40" s="66">
+      <c r="T40" s="65"/>
+      <c r="U40" s="64">
         <v>4</v>
       </c>
       <c r="V40" s="25">
         <v>6</v>
       </c>
-      <c r="W40" s="67"/>
+      <c r="W40" s="65"/>
     </row>
     <row r="41" spans="1:23" ht="15.6">
       <c r="A41" s="27"/>
-      <c r="B41" s="55"/>
+      <c r="B41" s="80"/>
       <c r="C41" s="28">
         <v>5</v>
       </c>
@@ -2672,85 +2691,85 @@
     </row>
     <row r="42" spans="1:23" ht="15.6">
       <c r="A42" s="30"/>
-      <c r="B42" s="55"/>
-      <c r="C42" s="56"/>
+      <c r="B42" s="54"/>
+      <c r="C42" s="55"/>
       <c r="D42" s="20"/>
-      <c r="E42" s="57"/>
-      <c r="F42" s="56"/>
+      <c r="E42" s="56"/>
+      <c r="F42" s="55"/>
       <c r="G42" s="20"/>
-      <c r="H42" s="57"/>
-      <c r="I42" s="56"/>
+      <c r="H42" s="56"/>
+      <c r="I42" s="55"/>
       <c r="J42" s="20"/>
-      <c r="K42" s="57"/>
-      <c r="L42" s="56"/>
+      <c r="K42" s="56"/>
+      <c r="L42" s="55"/>
       <c r="M42" s="20"/>
-      <c r="N42" s="57"/>
-      <c r="O42" s="56"/>
+      <c r="N42" s="56"/>
+      <c r="O42" s="55"/>
       <c r="P42" s="20"/>
-      <c r="Q42" s="57"/>
-      <c r="R42" s="56"/>
+      <c r="Q42" s="56"/>
+      <c r="R42" s="55"/>
       <c r="S42" s="20"/>
-      <c r="T42" s="57"/>
-      <c r="U42" s="56"/>
+      <c r="T42" s="56"/>
+      <c r="U42" s="55"/>
       <c r="V42" s="20"/>
-      <c r="W42" s="57"/>
-    </row>
-    <row r="43" spans="1:23" ht="15">
+      <c r="W42" s="56"/>
+    </row>
+    <row r="43" spans="1:23" ht="15.6">
       <c r="A43" s="33"/>
-      <c r="B43" s="34"/>
-      <c r="C43" s="35"/>
-      <c r="D43" s="36"/>
-      <c r="E43" s="37"/>
-      <c r="F43" s="35"/>
-      <c r="G43" s="36"/>
-      <c r="H43" s="37"/>
-      <c r="I43" s="35"/>
-      <c r="J43" s="36"/>
-      <c r="K43" s="37"/>
-      <c r="L43" s="35"/>
-      <c r="M43" s="36"/>
-      <c r="N43" s="37"/>
-      <c r="O43" s="35"/>
-      <c r="P43" s="36"/>
-      <c r="Q43" s="37"/>
-      <c r="R43" s="35"/>
-      <c r="S43" s="36"/>
-      <c r="T43" s="37"/>
-      <c r="U43" s="35"/>
-      <c r="V43" s="36"/>
-      <c r="W43" s="37"/>
+      <c r="B43" s="77"/>
+      <c r="C43" s="34"/>
+      <c r="D43" s="35"/>
+      <c r="E43" s="36"/>
+      <c r="F43" s="34"/>
+      <c r="G43" s="35"/>
+      <c r="H43" s="36"/>
+      <c r="I43" s="34"/>
+      <c r="J43" s="35"/>
+      <c r="K43" s="36"/>
+      <c r="L43" s="34"/>
+      <c r="M43" s="35"/>
+      <c r="N43" s="36"/>
+      <c r="O43" s="34"/>
+      <c r="P43" s="35"/>
+      <c r="Q43" s="36"/>
+      <c r="R43" s="34"/>
+      <c r="S43" s="35"/>
+      <c r="T43" s="36"/>
+      <c r="U43" s="34"/>
+      <c r="V43" s="35"/>
+      <c r="W43" s="36"/>
     </row>
     <row r="44" spans="1:23" ht="15.6">
-      <c r="A44" s="68"/>
+      <c r="A44" s="66"/>
       <c r="B44" s="10"/>
-      <c r="C44" s="61"/>
-      <c r="D44" s="62"/>
-      <c r="E44" s="63"/>
-      <c r="F44" s="64"/>
-      <c r="G44" s="65"/>
-      <c r="H44" s="44"/>
-      <c r="I44" s="61"/>
-      <c r="J44" s="62"/>
-      <c r="K44" s="63"/>
-      <c r="L44" s="64"/>
-      <c r="M44" s="65"/>
-      <c r="N44" s="44"/>
-      <c r="O44" s="61"/>
-      <c r="P44" s="62"/>
-      <c r="Q44" s="63"/>
-      <c r="R44" s="64"/>
-      <c r="S44" s="65"/>
-      <c r="T44" s="44"/>
-      <c r="U44" s="61"/>
-      <c r="V44" s="62"/>
-      <c r="W44" s="63"/>
+      <c r="C44" s="59"/>
+      <c r="D44" s="60"/>
+      <c r="E44" s="61"/>
+      <c r="F44" s="62"/>
+      <c r="G44" s="63"/>
+      <c r="H44" s="43"/>
+      <c r="I44" s="59"/>
+      <c r="J44" s="60"/>
+      <c r="K44" s="61"/>
+      <c r="L44" s="62"/>
+      <c r="M44" s="63"/>
+      <c r="N44" s="43"/>
+      <c r="O44" s="59"/>
+      <c r="P44" s="60"/>
+      <c r="Q44" s="61"/>
+      <c r="R44" s="62"/>
+      <c r="S44" s="63"/>
+      <c r="T44" s="43"/>
+      <c r="U44" s="59"/>
+      <c r="V44" s="60"/>
+      <c r="W44" s="61"/>
     </row>
     <row r="45" spans="1:23" ht="14.4">
-      <c r="A45" s="38"/>
+      <c r="A45" s="37"/>
       <c r="B45" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C45" s="59" t="s">
+      <c r="C45" s="57" t="s">
         <v>8</v>
       </c>
       <c r="D45" s="24" t="s">
@@ -2759,7 +2778,7 @@
       <c r="E45" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="F45" s="59" t="s">
+      <c r="F45" s="57" t="s">
         <v>8</v>
       </c>
       <c r="G45" s="24" t="s">
@@ -2768,7 +2787,7 @@
       <c r="H45" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="I45" s="59" t="s">
+      <c r="I45" s="57" t="s">
         <v>8</v>
       </c>
       <c r="J45" s="24" t="s">
@@ -2777,7 +2796,7 @@
       <c r="K45" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="L45" s="59" t="s">
+      <c r="L45" s="57" t="s">
         <v>8</v>
       </c>
       <c r="M45" s="24" t="s">
@@ -2786,7 +2805,7 @@
       <c r="N45" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="O45" s="59" t="s">
+      <c r="O45" s="57" t="s">
         <v>8</v>
       </c>
       <c r="P45" s="24" t="s">
@@ -2795,7 +2814,7 @@
       <c r="Q45" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="R45" s="59" t="s">
+      <c r="R45" s="57" t="s">
         <v>8</v>
       </c>
       <c r="S45" s="24" t="s">
@@ -2804,7 +2823,7 @@
       <c r="T45" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="U45" s="59" t="s">
+      <c r="U45" s="57" t="s">
         <v>8</v>
       </c>
       <c r="V45" s="24" t="s">
@@ -2922,7 +2941,7 @@
     </row>
     <row r="48" spans="1:23" ht="15.6">
       <c r="A48" s="21"/>
-      <c r="B48" s="55"/>
+      <c r="B48" s="80"/>
       <c r="C48" s="22">
         <v>4</v>
       </c>
@@ -2975,7 +2994,7 @@
     </row>
     <row r="49" spans="1:23" ht="15.6">
       <c r="A49" s="27"/>
-      <c r="B49" s="55"/>
+      <c r="B49" s="80"/>
       <c r="C49" s="28">
         <v>5</v>
       </c>
@@ -3028,53 +3047,53 @@
     </row>
     <row r="50" spans="1:23" ht="15.6">
       <c r="A50" s="30"/>
-      <c r="B50" s="55"/>
-      <c r="C50" s="56"/>
+      <c r="B50" s="54"/>
+      <c r="C50" s="55"/>
       <c r="D50" s="20"/>
-      <c r="E50" s="57"/>
-      <c r="F50" s="56"/>
+      <c r="E50" s="56"/>
+      <c r="F50" s="55"/>
       <c r="G50" s="20"/>
-      <c r="H50" s="57"/>
-      <c r="I50" s="56"/>
+      <c r="H50" s="56"/>
+      <c r="I50" s="55"/>
       <c r="J50" s="20"/>
-      <c r="K50" s="57"/>
-      <c r="L50" s="56"/>
+      <c r="K50" s="56"/>
+      <c r="L50" s="55"/>
       <c r="M50" s="20"/>
-      <c r="N50" s="57"/>
-      <c r="O50" s="56"/>
+      <c r="N50" s="56"/>
+      <c r="O50" s="55"/>
       <c r="P50" s="20"/>
-      <c r="Q50" s="57"/>
-      <c r="R50" s="56"/>
+      <c r="Q50" s="56"/>
+      <c r="R50" s="55"/>
       <c r="S50" s="20"/>
-      <c r="T50" s="57"/>
-      <c r="U50" s="56"/>
+      <c r="T50" s="56"/>
+      <c r="U50" s="55"/>
       <c r="V50" s="20"/>
-      <c r="W50" s="57"/>
+      <c r="W50" s="56"/>
     </row>
     <row r="51" spans="1:23" ht="15.6">
       <c r="A51" s="33"/>
-      <c r="B51" s="58"/>
-      <c r="C51" s="69"/>
-      <c r="D51" s="70"/>
-      <c r="E51" s="71"/>
-      <c r="F51" s="69"/>
-      <c r="G51" s="70"/>
-      <c r="H51" s="71"/>
-      <c r="I51" s="69"/>
-      <c r="J51" s="70"/>
-      <c r="K51" s="71"/>
-      <c r="L51" s="69"/>
-      <c r="M51" s="70"/>
-      <c r="N51" s="71"/>
-      <c r="O51" s="69"/>
-      <c r="P51" s="70"/>
-      <c r="Q51" s="71"/>
-      <c r="R51" s="69"/>
-      <c r="S51" s="70"/>
-      <c r="T51" s="71"/>
-      <c r="U51" s="69"/>
-      <c r="V51" s="70"/>
-      <c r="W51" s="71"/>
+      <c r="B51" s="79"/>
+      <c r="C51" s="67"/>
+      <c r="D51" s="68"/>
+      <c r="E51" s="69"/>
+      <c r="F51" s="67"/>
+      <c r="G51" s="68"/>
+      <c r="H51" s="69"/>
+      <c r="I51" s="67"/>
+      <c r="J51" s="68"/>
+      <c r="K51" s="69"/>
+      <c r="L51" s="67"/>
+      <c r="M51" s="68"/>
+      <c r="N51" s="69"/>
+      <c r="O51" s="67"/>
+      <c r="P51" s="68"/>
+      <c r="Q51" s="69"/>
+      <c r="R51" s="67"/>
+      <c r="S51" s="68"/>
+      <c r="T51" s="69"/>
+      <c r="U51" s="67"/>
+      <c r="V51" s="68"/>
+      <c r="W51" s="69"/>
     </row>
     <row r="52" spans="1:23" ht="14.4">
       <c r="C52" s="14"/>
@@ -15131,6 +15150,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="L28:N28"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="U28:W28"/>
+    <mergeCell ref="U4:W4"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="R28:T28"/>
+    <mergeCell ref="O28:Q28"/>
     <mergeCell ref="X4:Z4"/>
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="AA4:AC4"/>
@@ -15140,14 +15167,6 @@
     <mergeCell ref="F4:H4"/>
     <mergeCell ref="L4:N4"/>
     <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="L28:N28"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="U28:W28"/>
-    <mergeCell ref="U4:W4"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="R28:T28"/>
-    <mergeCell ref="O28:Q28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
